--- a/data/trans_bre/P36B08_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P36B08_R-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>5.011207516703287</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.394023434339898</v>
+        <v>2.394023434339876</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1616364896965628</v>
@@ -649,7 +649,7 @@
         <v>0.06226449309757544</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.02544559824098735</v>
+        <v>0.02544559824098711</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.299692713119246</v>
+        <v>2.155446159008943</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1433226602677919</v>
+        <v>0.1327022907021068</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.476553786193854</v>
+        <v>-2.119030977638721</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.145713683504282</v>
+        <v>-1.170561213998641</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.01987936930689005</v>
+        <v>0.03340899428380651</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002609405575738753</v>
+        <v>0.002037483379933286</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.01629541257105104</v>
+        <v>-0.02556635560489677</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.0119817190487309</v>
+        <v>-0.01214902380496055</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.96803730231153</v>
+        <v>18.36189892769005</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.04315379234116</v>
+        <v>15.02807645061958</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.59418658061485</v>
+        <v>11.41482697230485</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.147040813889522</v>
+        <v>5.913854681671298</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3152424358957653</v>
+        <v>0.3241008463477899</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2259788816366986</v>
+        <v>0.2244644088034246</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1398693392932813</v>
+        <v>0.1487106388741814</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.06686606031161295</v>
+        <v>0.06474678715689521</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>10.16616462161436</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4035647972760348</v>
+        <v>0.4035647972760237</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2652421516303223</v>
@@ -749,7 +749,7 @@
         <v>0.1485743124497579</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.004332956591464512</v>
+        <v>0.004332956591464392</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.450323328513082</v>
+        <v>4.901878028527865</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.332296720904911</v>
+        <v>4.864610603672838</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.658409584958321</v>
+        <v>4.921352418399978</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.560240927404214</v>
+        <v>-2.60809364611095</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1110947197839611</v>
+        <v>0.1036740969464574</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09030205807264755</v>
+        <v>0.07996224216121864</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06494334246910864</v>
+        <v>0.06854875893396085</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.02682212455511749</v>
+        <v>-0.02764968222232568</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>18.50387812535365</v>
+        <v>18.25318335028012</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>17.34900573168236</v>
+        <v>17.46700644640467</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>15.55832114651815</v>
+        <v>16.08014760386134</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.012563738665355</v>
+        <v>4.14283074359153</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4362541916749889</v>
+        <v>0.4403265030589229</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3365781264391723</v>
+        <v>0.3338162110717075</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.239818516031828</v>
+        <v>0.2472555825566453</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.04461952445172487</v>
+        <v>0.04551162175410413</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>5.098996953931056</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.867722914044868</v>
+        <v>2.86772291404489</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06233548734566395</v>
@@ -849,7 +849,7 @@
         <v>0.0698994915133179</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.03121694713252533</v>
+        <v>0.03121694713252558</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.784132245131786</v>
+        <v>-2.497052590342469</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.4086538425176608</v>
+        <v>-0.00193529414475761</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.7372282227105211</v>
+        <v>-0.8377642369360179</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.5143038054913162</v>
+        <v>-0.5124296651614692</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.02258972837616207</v>
+        <v>-0.03269686929955223</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.00420108349029447</v>
+        <v>-5.338582806803677e-07</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.008945333480137888</v>
+        <v>-0.01121516921694462</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.004736831157981829</v>
+        <v>-0.00523367078087289</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.90598726013985</v>
+        <v>10.72642440363758</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.38736449018102</v>
+        <v>11.79463729898929</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.16883552050157</v>
+        <v>12.2806373890563</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.237157261166431</v>
+        <v>7.186536514479511</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1752051320337433</v>
+        <v>0.1542011963107226</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.148471473094296</v>
+        <v>0.1546500388405166</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1823139984603558</v>
+        <v>0.1750038433234057</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.08185425479315515</v>
+        <v>0.08074115468423693</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>6.709404071549741</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.482092093505937</v>
+        <v>-0.4820920935059259</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1322849599814976</v>
@@ -949,7 +949,7 @@
         <v>0.08365281266520395</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.004895819938301895</v>
+        <v>-0.004895819938301783</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.026629641248222</v>
+        <v>2.022697421515653</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.009317397720336</v>
+        <v>1.765573616646236</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.105890139392855</v>
+        <v>1.049419871439817</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.226692380530762</v>
+        <v>-2.351869065418325</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.04159986009177712</v>
+        <v>0.03086231915986397</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01219712700889513</v>
+        <v>0.02174817244142295</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01359474979129005</v>
+        <v>0.01229192686775306</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.02239593661273259</v>
+        <v>-0.02386339732871199</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>15.25542799165515</v>
+        <v>15.40255417738302</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.49117148869187</v>
+        <v>13.02926897740414</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12.32105707429638</v>
+        <v>12.10648154895589</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.506959986365678</v>
+        <v>1.816845586339147</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2354339973220369</v>
+        <v>0.2416168354702059</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1653673809226478</v>
+        <v>0.1743466687353337</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1592030608023409</v>
+        <v>0.1575711648553082</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.01558649825371256</v>
+        <v>0.0185781000859045</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.578361168706925</v>
+        <v>2.026748227229184</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.6224281337628874</v>
+        <v>-0.4686802354786167</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.917021399399788</v>
+        <v>-6.445926955327004</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.622950083619888</v>
+        <v>-1.641565696993627</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.03413042762670809</v>
+        <v>0.03049029858982209</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.008371224394224773</v>
+        <v>-0.00362763285956031</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.06484008603456436</v>
+        <v>-0.07041504699476828</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.01625902646311674</v>
+        <v>-0.01645948126646042</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>21.52759828496333</v>
+        <v>21.41945068722768</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>18.53845263377923</v>
+        <v>18.37095452212591</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.417304692245057</v>
+        <v>5.380323247830219</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3173594534343107</v>
+        <v>0.3097727919832283</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.485718589472839</v>
+        <v>0.4618247372702086</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3178474137627806</v>
+        <v>0.3179971926594365</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06276784176597407</v>
+        <v>0.06197005764548501</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.003183027987136166</v>
+        <v>0.003112150666925997</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>6.090128882995738</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1.139017790628183</v>
+        <v>1.139017790628161</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1827781983303741</v>
@@ -1149,7 +1149,7 @@
         <v>0.1130238618661436</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.01176600033810418</v>
+        <v>0.01176600033810395</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>4.114798552479202</v>
+        <v>4.120799945965342</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>3.546342739549121</v>
+        <v>3.712791549943731</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.178322895696494</v>
+        <v>-2.636644830780682</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-1.35849195417924</v>
+        <v>-1.279310231001886</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.06282015658824146</v>
+        <v>0.06036261755281456</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04891753060725107</v>
+        <v>0.05105216892004347</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.03496415450026797</v>
+        <v>-0.0444896360419503</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.01387336304533142</v>
+        <v>-0.01311600289882325</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>19.39915056493627</v>
+        <v>18.6732842016332</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>17.64129702891385</v>
+        <v>18.12351186776349</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>14.54689919677858</v>
+        <v>14.78531709450532</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.814416037188532</v>
+        <v>3.819719215834607</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3262821460888462</v>
+        <v>0.3132444247159422</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2617469186931529</v>
+        <v>0.2699826589490082</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3029599735008546</v>
+        <v>0.303675947641501</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.04036091892779341</v>
+        <v>0.04004300074834855</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.728964923764173</v>
+        <v>-5.532297413327116</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.644074650259017</v>
+        <v>3.325216814645461</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.274508999949176</v>
+        <v>3.044383399526167</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1602677425995119</v>
+        <v>0.190582262645855</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.07291881183220179</v>
+        <v>-0.0724639936159832</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04841483354863461</v>
+        <v>0.04354124204678419</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04845702091559466</v>
+        <v>0.0467252972599526</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.001984841016922329</v>
+        <v>0.002249494521162259</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.94029133041428</v>
+        <v>4.913302165659771</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.75995121506217</v>
+        <v>12.53511410889499</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.10866907763467</v>
+        <v>13.70402092493573</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.799458919830141</v>
+        <v>7.418389517859147</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.05314734540519062</v>
+        <v>0.06720335575947683</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1806798499004758</v>
+        <v>0.1768375120234621</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2338686942994965</v>
+        <v>0.2290742614408422</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.09202928560762901</v>
+        <v>0.08714018353476935</v>
       </c>
     </row>
     <row r="25">
@@ -1349,7 +1349,7 @@
         <v>-0.002886179094052364</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.003650146668019497</v>
+        <v>0.003650146668019496</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>4.664295479085732</v>
+        <v>4.594500322963273</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.757601638132068</v>
+        <v>2.825588174451841</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-4.239105563801187</v>
+        <v>-4.699181796475114</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.9682722213158624</v>
+        <v>-1.113399033598072</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.07347350934917764</v>
+        <v>0.07167548198114125</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03808257720243621</v>
+        <v>0.03909130031843447</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.05543910591353417</v>
+        <v>-0.06005306375293622</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.00981640211893592</v>
+        <v>-0.01128558262449117</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>14.23785393987737</v>
+        <v>14.35681153714017</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>11.26822389069507</v>
+        <v>11.39505170810863</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4.085792314828823</v>
+        <v>4.162611506896063</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2.070091891537044</v>
+        <v>1.926442971817188</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2444859022844844</v>
+        <v>0.244699040932929</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1601305772343101</v>
+        <v>0.1651356075292437</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.05506601238774476</v>
+        <v>0.05592817296471875</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.02144541532905797</v>
+        <v>0.0199606968945809</v>
       </c>
     </row>
     <row r="28">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>5.021794031463165</v>
+        <v>5.438397801642045</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>6.332675860874071</v>
+        <v>6.389658348181006</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.787233816489573</v>
+        <v>2.85142131594296</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.3552419644812814</v>
+        <v>0.325074811368826</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.07901508225560805</v>
+        <v>0.08407349370273889</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.087337673760281</v>
+        <v>0.08953727569212207</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03821618311202692</v>
+        <v>0.03911584593108719</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.003790307431897135</v>
+        <v>0.003408966912881734</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.08073231960078</v>
+        <v>10.03829552672623</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>10.62318325965496</v>
+        <v>10.72015296244258</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.218447276188924</v>
+        <v>7.146413091629776</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.49556356706654</v>
+        <v>2.523215155364652</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.1628238367953258</v>
+        <v>0.1626679325312806</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1519553449422708</v>
+        <v>0.1540146661875056</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1014281152523454</v>
+        <v>0.1004086784628799</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.02666277463304059</v>
+        <v>0.02701347794326522</v>
       </c>
     </row>
     <row r="31">
